--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna1-Epha4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna1-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H2">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I2">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J2">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.3792757903497</v>
+        <v>10.4223555</v>
       </c>
       <c r="N2">
-        <v>10.3792757903497</v>
+        <v>20.844711</v>
       </c>
       <c r="O2">
-        <v>0.5267070808686305</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P2">
-        <v>0.5267070808686305</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q2">
-        <v>309.8646370513211</v>
+        <v>312.6834375966652</v>
       </c>
       <c r="R2">
-        <v>309.8646370513211</v>
+        <v>1250.733750386661</v>
       </c>
       <c r="S2">
-        <v>0.3276624688344251</v>
+        <v>0.3134947112818956</v>
       </c>
       <c r="T2">
-        <v>0.3276624688344251</v>
+        <v>0.2201151565165803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H3">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I3">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J3">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83240741284493</v>
+        <v>2.082668</v>
       </c>
       <c r="N3">
-        <v>1.83240741284493</v>
+        <v>6.248004</v>
       </c>
       <c r="O3">
-        <v>0.09298740864742691</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P3">
-        <v>0.09298740864742691</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q3">
-        <v>54.70499766845623</v>
+        <v>62.48259230963401</v>
       </c>
       <c r="R3">
-        <v>54.70499766845623</v>
+        <v>374.895553857804</v>
       </c>
       <c r="S3">
-        <v>0.0578471127399383</v>
+        <v>0.06264470669380286</v>
       </c>
       <c r="T3">
-        <v>0.0578471127399383</v>
+        <v>0.0659774260423289</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H4">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I4">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J4">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>5.8392634676081</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>5.8392634676081</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.296319461739929</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P4">
-        <v>0.296319461739929</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q4">
-        <v>174.3263491196297</v>
+        <v>0.7992926497710001</v>
       </c>
       <c r="R4">
-        <v>174.3263491196297</v>
+        <v>4.795755898626</v>
       </c>
       <c r="S4">
-        <v>0.1843392084975779</v>
+        <v>0.000801366456745048</v>
       </c>
       <c r="T4">
-        <v>0.1843392084975779</v>
+        <v>0.0008439994202723269</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.8541674111235</v>
+        <v>30.0012255</v>
       </c>
       <c r="H5">
-        <v>29.8541674111235</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I5">
-        <v>0.6220961911012348</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J5">
-        <v>0.6220961911012348</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.65502685291085</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N5">
-        <v>1.65502685291085</v>
+        <v>18.334645</v>
       </c>
       <c r="O5">
-        <v>0.08398604874401359</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P5">
-        <v>0.08398604874401359</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q5">
-        <v>49.40944873670539</v>
+        <v>183.3539397024826</v>
       </c>
       <c r="R5">
-        <v>49.40944873670539</v>
+        <v>1100.123638214895</v>
       </c>
       <c r="S5">
-        <v>0.0522474010292935</v>
+        <v>0.1838296611781938</v>
       </c>
       <c r="T5">
-        <v>0.0522474010292935</v>
+        <v>0.193609460637326</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9625987172418889</v>
+        <v>30.0012255</v>
       </c>
       <c r="H6">
-        <v>0.9625987172418889</v>
+        <v>60.00245100000001</v>
       </c>
       <c r="I6">
-        <v>0.02005847248421315</v>
+        <v>0.6105552840975592</v>
       </c>
       <c r="J6">
-        <v>0.02005847248421315</v>
+        <v>0.5155016483136245</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.3792757903497</v>
+        <v>1.6551325</v>
       </c>
       <c r="N6">
-        <v>10.3792757903497</v>
+        <v>3.310265</v>
       </c>
       <c r="O6">
-        <v>0.5267070808686305</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P6">
-        <v>0.5267070808686305</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q6">
-        <v>9.991077561690414</v>
+        <v>49.65600336487876</v>
       </c>
       <c r="R6">
-        <v>9.991077561690414</v>
+        <v>198.624013459515</v>
       </c>
       <c r="S6">
-        <v>0.01056493948884366</v>
+        <v>0.0497848384869219</v>
       </c>
       <c r="T6">
-        <v>0.01056493948884366</v>
+        <v>0.03495560569711702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H7">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I7">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J7">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.83240741284493</v>
+        <v>10.4223555</v>
       </c>
       <c r="N7">
-        <v>1.83240741284493</v>
+        <v>20.844711</v>
       </c>
       <c r="O7">
-        <v>0.09298740864742691</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P7">
-        <v>0.09298740864742691</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q7">
-        <v>1.763873025069058</v>
+        <v>10.841570431158</v>
       </c>
       <c r="R7">
-        <v>1.763873025069058</v>
+        <v>65.049422586948</v>
       </c>
       <c r="S7">
-        <v>0.001865185377732697</v>
+        <v>0.01086969945796215</v>
       </c>
       <c r="T7">
-        <v>0.001865185377732697</v>
+        <v>0.01144797110465177</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H8">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I8">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J8">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.8392634676081</v>
+        <v>2.082668</v>
       </c>
       <c r="N8">
-        <v>5.8392634676081</v>
+        <v>6.248004</v>
       </c>
       <c r="O8">
-        <v>0.296319461739929</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P8">
-        <v>0.296319461739929</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q8">
-        <v>5.620867523556981</v>
+        <v>2.166438460741333</v>
       </c>
       <c r="R8">
-        <v>5.620867523556981</v>
+        <v>19.497946146672</v>
       </c>
       <c r="S8">
-        <v>0.005943715769847217</v>
+        <v>0.002172059399692815</v>
       </c>
       <c r="T8">
-        <v>0.005943715769847217</v>
+        <v>0.003431420529349083</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9625987172418889</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H9">
-        <v>0.9625987172418889</v>
+        <v>3.120668</v>
       </c>
       <c r="I9">
-        <v>0.02005847248421315</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J9">
-        <v>0.02005847248421315</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.65502685291085</v>
+        <v>0.026642</v>
       </c>
       <c r="N9">
-        <v>1.65502685291085</v>
+        <v>0.079926</v>
       </c>
       <c r="O9">
-        <v>0.08398604874401359</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P9">
-        <v>0.08398604874401359</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q9">
-        <v>1.593126725612865</v>
+        <v>0.02771361228533334</v>
       </c>
       <c r="R9">
-        <v>1.593126725612865</v>
+        <v>0.249422510568</v>
       </c>
       <c r="S9">
-        <v>0.001684631847789581</v>
+        <v>2.77855167153939E-05</v>
       </c>
       <c r="T9">
-        <v>0.001684631847789581</v>
+        <v>4.38955732468729E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.2311958494098</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H10">
-        <v>16.2311958494098</v>
+        <v>3.120668</v>
       </c>
       <c r="I10">
-        <v>0.3382229682002047</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J10">
-        <v>0.3382229682002047</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.3792757903497</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N10">
-        <v>10.3792757903497</v>
+        <v>18.334645</v>
       </c>
       <c r="O10">
-        <v>0.5267070808686305</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P10">
-        <v>0.5267070808686305</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q10">
-        <v>168.4680581282037</v>
+        <v>6.357371104762223</v>
       </c>
       <c r="R10">
-        <v>168.4680581282037</v>
+        <v>57.21633994286001</v>
       </c>
       <c r="S10">
-        <v>0.1781444322634534</v>
+        <v>0.006373865639695636</v>
       </c>
       <c r="T10">
-        <v>0.1781444322634534</v>
+        <v>0.01006943613533659</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>16.2311958494098</v>
+        <v>1.040222666666667</v>
       </c>
       <c r="H11">
-        <v>16.2311958494098</v>
+        <v>3.120668</v>
       </c>
       <c r="I11">
-        <v>0.3382229682002047</v>
+        <v>0.02116958341489708</v>
       </c>
       <c r="J11">
-        <v>0.3382229682002047</v>
+        <v>0.02681072974568292</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.83240741284493</v>
+        <v>1.6551325</v>
       </c>
       <c r="N11">
-        <v>1.83240741284493</v>
+        <v>3.310265</v>
       </c>
       <c r="O11">
-        <v>0.09298740864742691</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P11">
-        <v>0.09298740864742691</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q11">
-        <v>29.74216359379638</v>
+        <v>1.721706342836667</v>
       </c>
       <c r="R11">
-        <v>29.74216359379638</v>
+        <v>10.33023805702</v>
       </c>
       <c r="S11">
-        <v>0.03145047735797811</v>
+        <v>0.001726173400831083</v>
       </c>
       <c r="T11">
-        <v>0.03145047735797811</v>
+        <v>0.001818006403098613</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H12">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I12">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J12">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.8392634676081</v>
+        <v>10.4223555</v>
       </c>
       <c r="N12">
-        <v>5.8392634676081</v>
+        <v>20.844711</v>
       </c>
       <c r="O12">
-        <v>0.296319461739929</v>
+        <v>0.5134583541362047</v>
       </c>
       <c r="P12">
-        <v>0.296319461739929</v>
+        <v>0.4269921487868164</v>
       </c>
       <c r="Q12">
-        <v>94.77822895905086</v>
+        <v>1.096626349236</v>
       </c>
       <c r="R12">
-        <v>94.77822895905086</v>
+        <v>6.579758095415999</v>
       </c>
       <c r="S12">
-        <v>0.1002220478851658</v>
+        <v>0.001099471604189391</v>
       </c>
       <c r="T12">
-        <v>0.1002220478851658</v>
+        <v>0.001157963861266228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>16.2311958494098</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H13">
-        <v>16.2311958494098</v>
+        <v>0.315656</v>
       </c>
       <c r="I13">
-        <v>0.3382229682002047</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J13">
-        <v>0.3382229682002047</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.65502685291085</v>
+        <v>2.082668</v>
       </c>
       <c r="N13">
-        <v>1.65502685291085</v>
+        <v>6.248004</v>
       </c>
       <c r="O13">
-        <v>0.08398604874401359</v>
+        <v>0.1026028409309336</v>
       </c>
       <c r="P13">
-        <v>0.08398604874401359</v>
+        <v>0.1279868381762944</v>
       </c>
       <c r="Q13">
-        <v>26.86306498562836</v>
+        <v>0.2191355500693333</v>
       </c>
       <c r="R13">
-        <v>26.86306498562836</v>
+        <v>1.972219950624</v>
       </c>
       <c r="S13">
-        <v>0.02840601069360735</v>
+        <v>0.0002197041088220327</v>
       </c>
       <c r="T13">
-        <v>0.02840601069360735</v>
+        <v>0.000347088661341807</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.941670233725161</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H14">
-        <v>0.941670233725161</v>
+        <v>0.315656</v>
       </c>
       <c r="I14">
-        <v>0.01962236821434728</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J14">
-        <v>0.01962236821434728</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>10.3792757903497</v>
+        <v>0.026642</v>
       </c>
       <c r="N14">
-        <v>10.3792757903497</v>
+        <v>0.079926</v>
       </c>
       <c r="O14">
-        <v>0.5267070808686305</v>
+        <v>0.001312520712894198</v>
       </c>
       <c r="P14">
-        <v>0.5267070808686305</v>
+        <v>0.001637239033150188</v>
       </c>
       <c r="Q14">
-        <v>9.773855059396507</v>
+        <v>0.002803235717333333</v>
       </c>
       <c r="R14">
-        <v>9.773855059396507</v>
+        <v>0.025229121456</v>
       </c>
       <c r="S14">
-        <v>0.01033524028190826</v>
+        <v>2.810508860383218E-06</v>
       </c>
       <c r="T14">
-        <v>0.01033524028190826</v>
+        <v>4.440043307655575E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.941670233725161</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H15">
-        <v>0.941670233725161</v>
+        <v>0.315656</v>
       </c>
       <c r="I15">
-        <v>0.01962236821434728</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J15">
-        <v>0.01962236821434728</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.83240741284493</v>
+        <v>6.111548333333334</v>
       </c>
       <c r="N15">
-        <v>1.83240741284493</v>
+        <v>18.334645</v>
       </c>
       <c r="O15">
-        <v>0.09298740864742691</v>
+        <v>0.3010860211453351</v>
       </c>
       <c r="P15">
-        <v>0.09298740864742691</v>
+        <v>0.3755748624096281</v>
       </c>
       <c r="Q15">
-        <v>1.725523516733403</v>
+        <v>0.6430489669022224</v>
       </c>
       <c r="R15">
-        <v>1.725523516733403</v>
+        <v>5.787440702120001</v>
       </c>
       <c r="S15">
-        <v>0.001824633171777792</v>
+        <v>0.0006447173913930496</v>
       </c>
       <c r="T15">
-        <v>0.001824633171777792</v>
+        <v>0.001018524858375132</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.941670233725161</v>
+        <v>0.1052186666666667</v>
       </c>
       <c r="H16">
-        <v>0.941670233725161</v>
+        <v>0.315656</v>
       </c>
       <c r="I16">
-        <v>0.01962236821434728</v>
+        <v>0.002141306291605756</v>
       </c>
       <c r="J16">
-        <v>0.01962236821434728</v>
+        <v>0.002711909023517813</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.8392634676081</v>
+        <v>1.6551325</v>
       </c>
       <c r="N16">
-        <v>5.8392634676081</v>
+        <v>3.310265</v>
       </c>
       <c r="O16">
-        <v>0.296319461739929</v>
+        <v>0.0815402630746324</v>
       </c>
       <c r="P16">
-        <v>0.296319461739929</v>
+        <v>0.0678089115941109</v>
       </c>
       <c r="Q16">
-        <v>5.498660594325314</v>
+        <v>0.1741508348066667</v>
       </c>
       <c r="R16">
-        <v>5.498660594325314</v>
+        <v>1.04490500884</v>
       </c>
       <c r="S16">
-        <v>0.005814489587338078</v>
+        <v>0.0001746026783408989</v>
       </c>
       <c r="T16">
-        <v>0.005814489587338078</v>
+        <v>0.000183891599226991</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1452,61 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.142059</v>
+      </c>
+      <c r="H17">
+        <v>0.426177</v>
+      </c>
+      <c r="I17">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J17">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.4223555</v>
+      </c>
+      <c r="N17">
+        <v>20.844711</v>
+      </c>
+      <c r="O17">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P17">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q17">
+        <v>1.4805893999745</v>
+      </c>
+      <c r="R17">
+        <v>8.883536399846998</v>
+      </c>
+      <c r="S17">
+        <v>0.00148443086733223</v>
+      </c>
+      <c r="T17">
+        <v>0.001563403085963382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.142059</v>
+      </c>
+      <c r="H18">
+        <v>0.426177</v>
+      </c>
+      <c r="I18">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J18">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.082668</v>
+      </c>
+      <c r="N18">
+        <v>6.248004</v>
+      </c>
+      <c r="O18">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P18">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q18">
+        <v>0.2958617334119999</v>
+      </c>
+      <c r="R18">
+        <v>2.662755600708</v>
+      </c>
+      <c r="S18">
+        <v>0.0002966293622977147</v>
+      </c>
+      <c r="T18">
+        <v>0.0004686152153758119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.142059</v>
+      </c>
+      <c r="H19">
+        <v>0.426177</v>
+      </c>
+      <c r="I19">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J19">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.026642</v>
+      </c>
+      <c r="N19">
+        <v>0.079926</v>
+      </c>
+      <c r="O19">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P19">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q19">
+        <v>0.003784735878</v>
+      </c>
+      <c r="R19">
+        <v>0.034062622902</v>
+      </c>
+      <c r="S19">
+        <v>3.794555575029586E-06</v>
+      </c>
+      <c r="T19">
+        <v>5.994640801146596E-06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.142059</v>
+      </c>
+      <c r="H20">
+        <v>0.426177</v>
+      </c>
+      <c r="I20">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J20">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N20">
+        <v>18.334645</v>
+      </c>
+      <c r="O20">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P20">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q20">
+        <v>0.8682004446850001</v>
+      </c>
+      <c r="R20">
+        <v>7.813804002165</v>
+      </c>
+      <c r="S20">
+        <v>0.000870453036570557</v>
+      </c>
+      <c r="T20">
+        <v>0.001375142143877317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.142059</v>
+      </c>
+      <c r="H21">
+        <v>0.426177</v>
+      </c>
+      <c r="I21">
+        <v>0.00289104433762598</v>
+      </c>
+      <c r="J21">
+        <v>0.003661432863356791</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.6551325</v>
+      </c>
+      <c r="N21">
+        <v>3.310265</v>
+      </c>
+      <c r="O21">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P21">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q21">
+        <v>0.2351264678175</v>
+      </c>
+      <c r="R21">
+        <v>1.410758806905</v>
+      </c>
+      <c r="S21">
+        <v>0.0002357365158504488</v>
+      </c>
+      <c r="T21">
+        <v>0.0002482777773391329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>16.833521</v>
+      </c>
+      <c r="H22">
+        <v>50.500563</v>
+      </c>
+      <c r="I22">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J22">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>10.4223555</v>
+      </c>
+      <c r="N22">
+        <v>20.844711</v>
+      </c>
+      <c r="O22">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P22">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q22">
+        <v>175.4449401787155</v>
+      </c>
+      <c r="R22">
+        <v>1052.669641072293</v>
+      </c>
+      <c r="S22">
+        <v>0.1759001413376506</v>
+      </c>
+      <c r="T22">
+        <v>0.1852580876891249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>16.833521</v>
+      </c>
+      <c r="H23">
+        <v>50.500563</v>
+      </c>
+      <c r="I23">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J23">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.082668</v>
+      </c>
+      <c r="N23">
+        <v>6.248004</v>
+      </c>
+      <c r="O23">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P23">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q23">
+        <v>35.058635514028</v>
+      </c>
+      <c r="R23">
+        <v>315.527719626252</v>
+      </c>
+      <c r="S23">
+        <v>0.03514959699459513</v>
+      </c>
+      <c r="T23">
+        <v>0.05552935096648753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.941670233725161</v>
-      </c>
-      <c r="H17">
-        <v>0.941670233725161</v>
-      </c>
-      <c r="I17">
-        <v>0.01962236821434728</v>
-      </c>
-      <c r="J17">
-        <v>0.01962236821434728</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="N17">
-        <v>1.65502685291085</v>
-      </c>
-      <c r="O17">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="P17">
-        <v>0.08398604874401359</v>
-      </c>
-      <c r="Q17">
-        <v>1.558489523401978</v>
-      </c>
-      <c r="R17">
-        <v>1.558489523401978</v>
-      </c>
-      <c r="S17">
-        <v>0.001648005173323154</v>
-      </c>
-      <c r="T17">
-        <v>0.001648005173323154</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>16.833521</v>
+      </c>
+      <c r="H24">
+        <v>50.500563</v>
+      </c>
+      <c r="I24">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J24">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.026642</v>
+      </c>
+      <c r="N24">
+        <v>0.079926</v>
+      </c>
+      <c r="O24">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P24">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q24">
+        <v>0.448478666482</v>
+      </c>
+      <c r="R24">
+        <v>4.036307998338</v>
+      </c>
+      <c r="S24">
+        <v>0.0004496422680571285</v>
+      </c>
+      <c r="T24">
+        <v>0.000710345080660557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.833521</v>
+      </c>
+      <c r="H25">
+        <v>50.500563</v>
+      </c>
+      <c r="I25">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J25">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N25">
+        <v>18.334645</v>
+      </c>
+      <c r="O25">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P25">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q25">
+        <v>102.8788772116817</v>
+      </c>
+      <c r="R25">
+        <v>925.909894905135</v>
+      </c>
+      <c r="S25">
+        <v>0.1031458018895265</v>
+      </c>
+      <c r="T25">
+        <v>0.162949789572951</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.833521</v>
+      </c>
+      <c r="H26">
+        <v>50.500563</v>
+      </c>
+      <c r="I26">
+        <v>0.3425791788577846</v>
+      </c>
+      <c r="J26">
+        <v>0.4338676676268781</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.6551325</v>
+      </c>
+      <c r="N26">
+        <v>3.310265</v>
+      </c>
+      <c r="O26">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P26">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q26">
+        <v>27.86170769653251</v>
+      </c>
+      <c r="R26">
+        <v>167.170246179195</v>
+      </c>
+      <c r="S26">
+        <v>0.0279339963679553</v>
+      </c>
+      <c r="T26">
+        <v>0.02942009431765407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.01536</v>
+      </c>
+      <c r="H27">
+        <v>2.03072</v>
+      </c>
+      <c r="I27">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J27">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>10.4223555</v>
+      </c>
+      <c r="N27">
+        <v>20.844711</v>
+      </c>
+      <c r="O27">
+        <v>0.5134583541362047</v>
+      </c>
+      <c r="P27">
+        <v>0.4269921487868164</v>
+      </c>
+      <c r="Q27">
+        <v>10.58244288048</v>
+      </c>
+      <c r="R27">
+        <v>42.32977152191999</v>
+      </c>
+      <c r="S27">
+        <v>0.01060989958717471</v>
+      </c>
+      <c r="T27">
+        <v>0.007449566529229778</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.01536</v>
+      </c>
+      <c r="H28">
+        <v>2.03072</v>
+      </c>
+      <c r="I28">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J28">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>2.082668</v>
+      </c>
+      <c r="N28">
+        <v>6.248004</v>
+      </c>
+      <c r="O28">
+        <v>0.1026028409309336</v>
+      </c>
+      <c r="P28">
+        <v>0.1279868381762944</v>
+      </c>
+      <c r="Q28">
+        <v>2.11465778048</v>
+      </c>
+      <c r="R28">
+        <v>12.68794668288</v>
+      </c>
+      <c r="S28">
+        <v>0.002120144371723071</v>
+      </c>
+      <c r="T28">
+        <v>0.002232936761411265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.01536</v>
+      </c>
+      <c r="H29">
+        <v>2.03072</v>
+      </c>
+      <c r="I29">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J29">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.026642</v>
+      </c>
+      <c r="N29">
+        <v>0.079926</v>
+      </c>
+      <c r="O29">
+        <v>0.001312520712894198</v>
+      </c>
+      <c r="P29">
+        <v>0.001637239033150188</v>
+      </c>
+      <c r="Q29">
+        <v>0.02705122112</v>
+      </c>
+      <c r="R29">
+        <v>0.16230732672</v>
+      </c>
+      <c r="S29">
+        <v>2.712140694121485E-05</v>
+      </c>
+      <c r="T29">
+        <v>2.85642748616289E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.01536</v>
+      </c>
+      <c r="H30">
+        <v>2.03072</v>
+      </c>
+      <c r="I30">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J30">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>6.111548333333334</v>
+      </c>
+      <c r="N30">
+        <v>18.334645</v>
+      </c>
+      <c r="O30">
+        <v>0.3010860211453351</v>
+      </c>
+      <c r="P30">
+        <v>0.3755748624096281</v>
+      </c>
+      <c r="Q30">
+        <v>6.205421715733334</v>
+      </c>
+      <c r="R30">
+        <v>37.23253029440001</v>
+      </c>
+      <c r="S30">
+        <v>0.006221522009955587</v>
+      </c>
+      <c r="T30">
+        <v>0.006552509061762004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.01536</v>
+      </c>
+      <c r="H31">
+        <v>2.03072</v>
+      </c>
+      <c r="I31">
+        <v>0.02066360300052735</v>
+      </c>
+      <c r="J31">
+        <v>0.01744661242693975</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.6551325</v>
+      </c>
+      <c r="N31">
+        <v>3.310265</v>
+      </c>
+      <c r="O31">
+        <v>0.0815402630746324</v>
+      </c>
+      <c r="P31">
+        <v>0.0678089115941109</v>
+      </c>
+      <c r="Q31">
+        <v>1.6805553352</v>
+      </c>
+      <c r="R31">
+        <v>6.722221340800001</v>
+      </c>
+      <c r="S31">
+        <v>0.001684915624732764</v>
+      </c>
+      <c r="T31">
+        <v>0.001183035799675074</v>
       </c>
     </row>
   </sheetData>
